--- a/biology/Botanique/J.Presl/J.Presl.xlsx
+++ b/biology/Botanique/J.Presl/J.Presl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan Svatopluk Presl, né le 4 septembre 1791 près de Prague et mort le 6 avril 1849 à Prague, est un botaniste, minéralogiste et chimiste de langue tchèque.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine à l'université Charles de Prague et obtient son doctorat en 1816.
 Il est le frère du botaniste Karel Bořivoj Presl (1794–1852). La Société botanique tchèque a commémoré la mémoire de ces deux frères en nommant sa principale publication Preslia (fondée en 1914).
@@ -543,7 +557,9 @@
           <t>Quelques ouvrages et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jan Svatopluk Presl et Karel Bořiwog Presl - Flora bohemica : Indicatis medicinalibus, occonomicis technologicisque plantis. Kwětena česka. Spoznamenánjm lekařských, hospodařských a řemeselnických rostlin - Pragae : J. G. Clave , 1819 (ouvrage en tchèque et latin)
 Jan Svatopluk Presl et Karel Bořiwog Presl - Deliciae pragenses : historiam naturalem spectantes  -  Pragae : Sumtibus Calve , 1822 (ouvrage en latin)
